--- a/fbf-vlm/airfoils_2/MorphingVsCL.xlsx
+++ b/fbf-vlm/airfoils_2/MorphingVsCL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanay/Dropbox/ProjectCodes/iFlyNet-MW/fbf-vlm/airfoils_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCD697B-26F0-9542-A9FA-397A55FAE0D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A747772-8535-7C43-9479-486081449E4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4220" yWindow="-20960" windowWidth="28040" windowHeight="19760" xr2:uid="{E290FF05-32D0-F546-92DF-39368A34ECC1}"/>
   </bookViews>
@@ -34,12 +34,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Morphing</t>
   </si>
   <si>
     <t>CL</t>
+  </si>
+  <si>
+    <t>14m/s</t>
+  </si>
+  <si>
+    <t>2deg</t>
   </si>
 </sst>
 </file>
@@ -209,35 +215,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$6:$A$14</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -245,36 +263,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$14</c:f>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.1429</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15509999999999999</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1598</c:v>
+                  <c:v>0.124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1598</c:v>
+                  <c:v>0.126</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1608</c:v>
+                  <c:v>0.13400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1636</c:v>
+                  <c:v>0.14399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17319999999999999</c:v>
+                  <c:v>0.14299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18379999999999999</c:v>
+                  <c:v>0.14299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19819999999999999</c:v>
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18099999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1473,112 +1503,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2CE2AB-0AF3-2546-A425-612E4C1FF72B}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-6</v>
       </c>
+      <c r="B2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-5</v>
       </c>
+      <c r="B3">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-4</v>
       </c>
+      <c r="B4">
+        <v>0.124</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-3</v>
       </c>
+      <c r="B5">
+        <v>0.126</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-2</v>
       </c>
       <c r="B6">
-        <v>0.1429</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-1</v>
       </c>
       <c r="B7">
-        <v>0.15509999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0.1598</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0.1598</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.1608</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>0.1636</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12">
-        <v>0.17319999999999999</v>
+        <v>0.156</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0.18379999999999999</v>
+        <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14">
-        <v>0.19819999999999999</v>
+        <v>0.18099999999999999</v>
       </c>
     </row>
   </sheetData>
